--- a/config_12.01/fish_3d_yutu_random_2.xlsx
+++ b/config_12.01/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,14 @@
   </si>
   <si>
     <t>117,118,119,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +508,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -548,6 +556,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1104,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,6 +1429,26 @@
         <v>58</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1429,16 +1460,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="6" customWidth="1"/>
@@ -1502,10 +1533,10 @@
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="7">
@@ -1526,13 +1557,13 @@
       <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="7">
@@ -1552,7 +1583,7 @@
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1576,7 +1607,7 @@
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1599,7 +1630,7 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1622,7 +1653,7 @@
       <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1645,13 +1676,13 @@
       <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>65</v>
       </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
         <v>1</v>
       </c>
       <c r="F9" s="13"/>
@@ -1669,13 +1700,13 @@
       <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>66</v>
       </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
         <v>1</v>
       </c>
       <c r="F10" s="13"/>
@@ -1693,13 +1724,13 @@
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>67</v>
       </c>
-      <c r="D11" s="12">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
         <v>1</v>
       </c>
       <c r="F11" s="13"/>
@@ -1717,13 +1748,13 @@
       <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>68</v>
       </c>
-      <c r="D12" s="12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>5</v>
       </c>
       <c r="F12" s="13"/>
@@ -1930,7 +1961,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
